--- a/Scale offset calculator.xlsx
+++ b/Scale offset calculator.xlsx
@@ -46,7 +46,7 @@
     <t>offset</t>
   </si>
   <si>
-    <t>3ee</t>
+    <t>21c</t>
   </si>
 </sst>
 </file>
@@ -55,8 +55,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -220,8 +220,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,30 +570,30 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="9">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="D2">
         <f>IF(ISBLANK(B2),HEX2DEC(C2),B2)</f>
-        <v>17</v>
+        <v>512</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="13">
         <f>(D6-D5)/(D3-D2)*B8</f>
-        <v>103.43781597573306</v>
+        <v>730.71428571428578</v>
       </c>
       <c r="H2" s="14">
         <f>ROUND(G2,0)</f>
-        <v>103</v>
+        <v>731</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>DEC2HEX(H2)</f>
-        <v>67</v>
+        <v>2DB</v>
       </c>
       <c r="J2" s="12">
         <f>G2/B8</f>
-        <v>0.10111223458038422</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -606,22 +606,22 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D6" si="0">IF(ISBLANK(B3),HEX2DEC(C3),B3)</f>
-        <v>1006</v>
+        <v>540</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="13">
         <f>D5-D2*(G2/B8)</f>
-        <v>-1.7189079878665319</v>
+        <v>-365.71428571428572</v>
       </c>
       <c r="H3" s="14">
         <f>ROUND(G3,0)</f>
-        <v>-2</v>
+        <v>-366</v>
       </c>
       <c r="I3" s="16" t="str">
         <f>RIGHT(DEC2HEX(H3),4)</f>
-        <v>FFFE</v>
+        <v>FE92</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -651,12 +651,12 @@
         <v>1</v>
       </c>
       <c r="B6" s="7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
